--- a/Desktop Memory Data.xlsx
+++ b/Desktop Memory Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216"/>
   </bookViews>
   <sheets>
     <sheet name="CT-Log 2016-11-21 22-56-45" sheetId="1" r:id="rId1"/>
@@ -678,6 +678,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Desktop, Memory</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Bound Computation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4316,7 +4346,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4633,18 +4669,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4674,7 +4710,7 @@
         <v>253953.84891168552</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4698,7 +4734,7 @@
         <v>5120000000</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4722,7 +4758,7 @@
         <v>7198503.2430080939</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4746,7 +4782,7 @@
         <v>28.345714285714294</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4770,7 +4806,7 @@
         <v>7.1985032430080942</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G6">
         <f>SUM(G2:G5)</f>
         <v>20</v>
@@ -4780,7 +4816,7 @@
         <v>711.25896969943801</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4839,7 +4875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>42696.835011574076</v>
       </c>
@@ -4893,7 +4929,7 @@
         <v>42696.835011574076</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>42696.835069444445</v>
       </c>
@@ -4947,7 +4983,7 @@
         <v>42696.835069444445</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>42696.835127314815</v>
       </c>
@@ -5001,7 +5037,7 @@
         <v>42696.835127314815</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>42696.835185185184</v>
       </c>
@@ -5055,7 +5091,7 @@
         <v>42696.835185185184</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>42696.835243055553</v>
       </c>
@@ -5109,7 +5145,7 @@
         <v>42696.835243055553</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>42696.835300925923</v>
       </c>
@@ -5163,7 +5199,7 @@
         <v>42696.835300925923</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>42696.835358796299</v>
       </c>
@@ -5217,7 +5253,7 @@
         <v>42696.835358796299</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>42696.835416666669</v>
       </c>
@@ -5271,7 +5307,7 @@
         <v>42696.835416666669</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>42696.835474537038</v>
       </c>
@@ -5325,7 +5361,7 @@
         <v>42696.835474537038</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>42696.835532407407</v>
       </c>
@@ -5379,7 +5415,7 @@
         <v>42696.835532407407</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>42696.835590277777</v>
       </c>
@@ -5433,7 +5469,7 @@
         <v>42696.835590277777</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>42696.835648148146</v>
       </c>
@@ -5487,7 +5523,7 @@
         <v>42696.835648148146</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>42696.835706018515</v>
       </c>
@@ -5541,7 +5577,7 @@
         <v>42696.835706018515</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>42696.835763888892</v>
       </c>
@@ -5595,7 +5631,7 @@
         <v>42696.835763888892</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>42696.835821759261</v>
       </c>
@@ -5649,7 +5685,7 @@
         <v>42696.835821759261</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>42696.835879629631</v>
       </c>
@@ -5703,7 +5739,7 @@
         <v>42696.835879629631</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>42696.8359375</v>
       </c>
@@ -5757,7 +5793,7 @@
         <v>42696.8359375</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>42696.835995370369</v>
       </c>
@@ -5811,7 +5847,7 @@
         <v>42696.835995370369</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>42696.836053240739</v>
       </c>
@@ -5865,7 +5901,7 @@
         <v>42696.836053240739</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>42696.836111111108</v>
       </c>
@@ -5919,7 +5955,7 @@
         <v>42696.836111111108</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>42696.836168981485</v>
       </c>
@@ -5973,7 +6009,7 @@
         <v>42696.836168981485</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>42696.836226851854</v>
       </c>
@@ -6027,7 +6063,7 @@
         <v>42696.836226851854</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>42696.836284722223</v>
       </c>
@@ -6081,7 +6117,7 @@
         <v>42696.836284722223</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>42696.836342592593</v>
       </c>
@@ -6135,7 +6171,7 @@
         <v>42696.836342592593</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>42696.836400462962</v>
       </c>
@@ -6189,7 +6225,7 @@
         <v>42696.836400462962</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>42696.836458333331</v>
       </c>
@@ -6243,7 +6279,7 @@
         <v>42696.836458333331</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>42696.836516203701</v>
       </c>
@@ -6297,7 +6333,7 @@
         <v>42696.836516203701</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>42696.836574074077</v>
       </c>
@@ -6351,7 +6387,7 @@
         <v>42696.836574074077</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>42696.836631944447</v>
       </c>
@@ -6405,7 +6441,7 @@
         <v>42696.836631944447</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>42696.836689814816</v>
       </c>
@@ -6459,7 +6495,7 @@
         <v>42696.836689814816</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>42696.836747685185</v>
       </c>
@@ -6513,7 +6549,7 @@
         <v>42696.836747685185</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>42696.836805555555</v>
       </c>
@@ -6567,7 +6603,7 @@
         <v>42696.836805555555</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>42696.836863425924</v>
       </c>
@@ -6621,7 +6657,7 @@
         <v>42696.836863425924</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42696.836921296293</v>
       </c>
@@ -6675,7 +6711,7 @@
         <v>42696.836921296293</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42696.83697916667</v>
       </c>
@@ -6729,7 +6765,7 @@
         <v>42696.83697916667</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42696.837037037039</v>
       </c>
@@ -6783,7 +6819,7 @@
         <v>42696.837037037039</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>42696.837094907409</v>
       </c>
@@ -6837,7 +6873,7 @@
         <v>42696.837094907409</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>42696.837152777778</v>
       </c>
@@ -6891,7 +6927,7 @@
         <v>42696.837152777778</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>42696.837210648147</v>
       </c>
@@ -6945,7 +6981,7 @@
         <v>42696.837210648147</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>42696.837268518517</v>
       </c>
@@ -6999,7 +7035,7 @@
         <v>42696.837268518517</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>42696.837326388886</v>
       </c>
@@ -7053,7 +7089,7 @@
         <v>42696.837326388886</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>42696.837384259263</v>
       </c>
@@ -7107,7 +7143,7 @@
         <v>42696.837384259263</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>42696.837442129632</v>
       </c>
@@ -7161,7 +7197,7 @@
         <v>42696.837442129632</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>42696.837500000001</v>
       </c>
@@ -7215,7 +7251,7 @@
         <v>42696.837500000001</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>42696.837557870371</v>
       </c>
@@ -7269,7 +7305,7 @@
         <v>42696.837557870371</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>42696.83761574074</v>
       </c>
@@ -7323,7 +7359,7 @@
         <v>42696.83761574074</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>42696.837673611109</v>
       </c>
@@ -7377,7 +7413,7 @@
         <v>42696.837673611109</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>42696.837731481479</v>
       </c>
@@ -7431,7 +7467,7 @@
         <v>42696.837731481479</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>42696.837789351855</v>
       </c>
@@ -7485,7 +7521,7 @@
         <v>42696.837789351855</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>42696.837847222225</v>
       </c>
@@ -7539,7 +7575,7 @@
         <v>42696.837847222225</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>42696.837905092594</v>
       </c>
@@ -7593,7 +7629,7 @@
         <v>42696.837905092594</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>42696.837962962964</v>
       </c>
@@ -7647,7 +7683,7 @@
         <v>42696.837962962964</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>42696.838020833333</v>
       </c>
@@ -7701,7 +7737,7 @@
         <v>42696.838020833333</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>42696.838078703702</v>
       </c>
@@ -7755,7 +7791,7 @@
         <v>42696.838078703702</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>42696.838136574072</v>
       </c>
@@ -7809,7 +7845,7 @@
         <v>42696.838136574072</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>42696.838194444441</v>
       </c>
@@ -7863,7 +7899,7 @@
         <v>42696.838194444441</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>42696.838252314818</v>
       </c>
@@ -7917,7 +7953,7 @@
         <v>42696.838252314818</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>42696.838310185187</v>
       </c>
@@ -7971,7 +8007,7 @@
         <v>42696.838310185187</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>42696.838368055556</v>
       </c>
@@ -8025,7 +8061,7 @@
         <v>42696.838368055556</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>42696.838425925926</v>
       </c>
@@ -8079,7 +8115,7 @@
         <v>42696.838425925926</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>42696.838483796295</v>
       </c>
@@ -8133,7 +8169,7 @@
         <v>42696.838483796295</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>42696.838541666664</v>
       </c>
@@ -8187,7 +8223,7 @@
         <v>42696.838541666664</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>42696.838599537034</v>
       </c>
@@ -8241,7 +8277,7 @@
         <v>42696.838599537034</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>42696.83865740741</v>
       </c>
@@ -8295,7 +8331,7 @@
         <v>42696.83865740741</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>42696.83871527778</v>
       </c>
@@ -8349,7 +8385,7 @@
         <v>42696.83871527778</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>42696.838773148149</v>
       </c>
@@ -8403,7 +8439,7 @@
         <v>42696.838773148149</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>42696.838831018518</v>
       </c>
@@ -8457,7 +8493,7 @@
         <v>42696.838831018518</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>42696.838888888888</v>
       </c>
@@ -8511,7 +8547,7 @@
         <v>42696.838888888888</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>42696.838946759257</v>
       </c>
@@ -8565,7 +8601,7 @@
         <v>42696.838946759257</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>42696.839004629626</v>
       </c>
@@ -8619,7 +8655,7 @@
         <v>42696.839004629626</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>42696.839062500003</v>
       </c>
@@ -8673,7 +8709,7 @@
         <v>42696.839062500003</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>42696.839120370372</v>
       </c>
@@ -8727,7 +8763,7 @@
         <v>42696.839120370372</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>42696.839178240742</v>
       </c>
@@ -8781,7 +8817,7 @@
         <v>42696.839178240742</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>42696.839236111111</v>
       </c>
@@ -8835,7 +8871,7 @@
         <v>42696.839236111111</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>42696.83929398148</v>
       </c>
@@ -8889,7 +8925,7 @@
         <v>42696.83929398148</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>42696.83935185185</v>
       </c>
@@ -8943,7 +8979,7 @@
         <v>42696.83935185185</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>42696.839409722219</v>
       </c>
@@ -8997,7 +9033,7 @@
         <v>42696.839409722219</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>42696.839467592596</v>
       </c>
@@ -9051,7 +9087,7 @@
         <v>42696.839467592596</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>42696.839525462965</v>
       </c>
@@ -9105,7 +9141,7 @@
         <v>42696.839525462965</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>42696.839583333334</v>
       </c>
@@ -9159,7 +9195,7 @@
         <v>42696.839583333334</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>42696.839641203704</v>
       </c>
@@ -9213,7 +9249,7 @@
         <v>42696.839641203704</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>42696.839699074073</v>
       </c>
@@ -9267,7 +9303,7 @@
         <v>42696.839699074073</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>42696.839756944442</v>
       </c>
@@ -9321,7 +9357,7 @@
         <v>42696.839756944442</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>42696.839814814812</v>
       </c>
@@ -9375,7 +9411,7 @@
         <v>42696.839814814812</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>42696.839872685188</v>
       </c>
@@ -9429,7 +9465,7 @@
         <v>42696.839872685188</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>42696.839930555558</v>
       </c>
@@ -9483,7 +9519,7 @@
         <v>42696.839930555558</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>42696.839988425927</v>
       </c>
@@ -9537,7 +9573,7 @@
         <v>42696.839988425927</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>42696.840046296296</v>
       </c>
@@ -9591,7 +9627,7 @@
         <v>42696.840046296296</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>42696.840104166666</v>
       </c>
@@ -9645,7 +9681,7 @@
         <v>42696.840104166666</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>42696.840162037035</v>
       </c>
@@ -9699,7 +9735,7 @@
         <v>42696.840162037035</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>42696.840219907404</v>
       </c>
@@ -9753,7 +9789,7 @@
         <v>42696.840219907404</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>42696.840277777781</v>
       </c>
@@ -9807,7 +9843,7 @@
         <v>42696.840277777781</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>42696.84033564815</v>
       </c>
@@ -9861,7 +9897,7 @@
         <v>42696.84033564815</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>42696.84039351852</v>
       </c>
@@ -9915,7 +9951,7 @@
         <v>42696.84039351852</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>42696.840451388889</v>
       </c>
@@ -9969,7 +10005,7 @@
         <v>42696.840451388889</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>42696.840509259258</v>
       </c>
@@ -10023,7 +10059,7 @@
         <v>42696.840509259258</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>42696.840567129628</v>
       </c>
@@ -10077,7 +10113,7 @@
         <v>42696.840567129628</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>42696.840624999997</v>
       </c>
@@ -10131,7 +10167,7 @@
         <v>42696.840624999997</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>42696.840682870374</v>
       </c>
@@ -10185,7 +10221,7 @@
         <v>42696.840682870374</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>42696.840740740743</v>
       </c>
@@ -10239,7 +10275,7 @@
         <v>42696.840740740743</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>42696.840798611112</v>
       </c>
@@ -10293,7 +10329,7 @@
         <v>42696.840798611112</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>42696.840856481482</v>
       </c>
@@ -10347,7 +10383,7 @@
         <v>42696.840856481482</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>42696.840914351851</v>
       </c>
@@ -10401,7 +10437,7 @@
         <v>42696.840914351851</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>42696.84097222222</v>
       </c>
@@ -10455,7 +10491,7 @@
         <v>42696.84097222222</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>42696.84103009259</v>
       </c>
@@ -10509,7 +10545,7 @@
         <v>42696.84103009259</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>42696.841087962966</v>
       </c>
@@ -10563,7 +10599,7 @@
         <v>42696.841087962966</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>42696.841145833336</v>
       </c>
@@ -10617,7 +10653,7 @@
         <v>42696.841145833336</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>42696.841203703705</v>
       </c>
@@ -10671,7 +10707,7 @@
         <v>42696.841203703705</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>42696.841261574074</v>
       </c>
@@ -10725,7 +10761,7 @@
         <v>42696.841261574074</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>42696.841319444444</v>
       </c>
@@ -10779,7 +10815,7 @@
         <v>42696.841319444444</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>42696.841377314813</v>
       </c>
@@ -10833,7 +10869,7 @@
         <v>42696.841377314813</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>42696.841435185182</v>
       </c>
@@ -10887,7 +10923,7 @@
         <v>42696.841435185182</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>42696.841493055559</v>
       </c>
@@ -10941,7 +10977,7 @@
         <v>42696.841493055559</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>42696.841550925928</v>
       </c>
@@ -10995,7 +11031,7 @@
         <v>42696.841550925928</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>42696.841608796298</v>
       </c>
@@ -11049,7 +11085,7 @@
         <v>42696.841608796298</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>42696.841666666667</v>
       </c>
@@ -11103,7 +11139,7 @@
         <v>42696.841666666667</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>42696.841724537036</v>
       </c>
@@ -11157,7 +11193,7 @@
         <v>42696.841724537036</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>42696.841782407406</v>
       </c>
@@ -11211,7 +11247,7 @@
         <v>42696.841782407406</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>42696.841840277775</v>
       </c>
@@ -11265,7 +11301,7 @@
         <v>42696.841840277775</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>42696.841898148145</v>
       </c>
@@ -11319,7 +11355,7 @@
         <v>42696.841898148145</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>42696.841956018521</v>
       </c>
@@ -11373,7 +11409,7 @@
         <v>42696.841956018521</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>42696.842013888891</v>
       </c>
@@ -11427,7 +11463,7 @@
         <v>42696.842013888891</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>42696.84207175926</v>
       </c>
@@ -11481,7 +11517,7 @@
         <v>42696.84207175926</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>42696.842129629629</v>
       </c>
@@ -11535,7 +11571,7 @@
         <v>42696.842129629629</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>42696.842187499999</v>
       </c>
@@ -11589,7 +11625,7 @@
         <v>42696.842187499999</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>42696.842245370368</v>
       </c>
@@ -11643,7 +11679,7 @@
         <v>42696.842245370368</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>42696.842303240737</v>
       </c>
@@ -11697,7 +11733,7 @@
         <v>42696.842303240737</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>42696.842361111114</v>
       </c>
@@ -11751,7 +11787,7 @@
         <v>42696.842361111114</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>42696.842418981483</v>
       </c>
@@ -11805,7 +11841,7 @@
         <v>42696.842418981483</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>42696.842476851853</v>
       </c>
@@ -11859,7 +11895,7 @@
         <v>42696.842476851853</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>42696.842534722222</v>
       </c>
@@ -11913,7 +11949,7 @@
         <v>42696.842534722222</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>42696.842592592591</v>
       </c>
@@ -11967,7 +12003,7 @@
         <v>42696.842592592591</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>42696.842650462961</v>
       </c>
@@ -12021,7 +12057,7 @@
         <v>42696.842650462961</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>42696.84270833333</v>
       </c>
@@ -12075,7 +12111,7 @@
         <v>42696.84270833333</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>42696.842766203707</v>
       </c>
@@ -12129,7 +12165,7 @@
         <v>42696.842766203707</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>42696.842824074076</v>
       </c>
@@ -12183,7 +12219,7 @@
         <v>42696.842824074076</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>42696.842881944445</v>
       </c>
@@ -12237,7 +12273,7 @@
         <v>42696.842881944445</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>42696.842939814815</v>
       </c>
@@ -12291,7 +12327,7 @@
         <v>42696.842939814815</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>42696.842997685184</v>
       </c>
@@ -12345,7 +12381,7 @@
         <v>42696.842997685184</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>42696.843055555553</v>
       </c>
@@ -12399,7 +12435,7 @@
         <v>42696.843055555553</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>42696.843113425923</v>
       </c>
@@ -12453,7 +12489,7 @@
         <v>42696.843113425923</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>42696.843171296299</v>
       </c>
@@ -12507,7 +12543,7 @@
         <v>42696.843171296299</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>42696.843229166669</v>
       </c>
@@ -12561,7 +12597,7 @@
         <v>42696.843229166669</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>42696.843287037038</v>
       </c>
@@ -12615,7 +12651,7 @@
         <v>42696.843287037038</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>42696.843344907407</v>
       </c>
@@ -12669,7 +12705,7 @@
         <v>42696.843344907407</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>42696.843402777777</v>
       </c>
@@ -12723,7 +12759,7 @@
         <v>42696.843402777777</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>42696.843460648146</v>
       </c>
@@ -12777,7 +12813,7 @@
         <v>42696.843460648146</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>42696.843518518515</v>
       </c>
@@ -12831,7 +12867,7 @@
         <v>42696.843518518515</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>42696.843576388892</v>
       </c>

--- a/Desktop Memory Data.xlsx
+++ b/Desktop Memory Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216"/>
   </bookViews>
   <sheets>
     <sheet name="CT-Log 2016-11-21 22-56-45" sheetId="1" r:id="rId1"/>
@@ -4333,16 +4333,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4667,10 +4667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T158"/>
+  <dimension ref="A1:V158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4680,7 +4680,7 @@
     <col min="20" max="20" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>253953.84891168552</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>5120000000</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>7198503.2430080939</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>28.345714285714294</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>7.1985032430080942</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G6">
         <f>SUM(G2:G5)</f>
         <v>20</v>
@@ -4816,7 +4816,7 @@
         <v>711.25896969943801</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>42696.835011574076</v>
       </c>
@@ -4928,8 +4928,12 @@
         <f>A10</f>
         <v>42696.835011574076</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U10">
+        <f>S10/R10</f>
+        <v>0.15412844036697249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>42696.835069444445</v>
       </c>
@@ -4982,8 +4986,12 @@
         <f t="shared" ref="T11:T74" si="3">A11</f>
         <v>42696.835069444445</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U11">
+        <f t="shared" ref="U11:U74" si="4">S11/R11</f>
+        <v>0.40294117647058819</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>42696.835127314815</v>
       </c>
@@ -5036,8 +5044,12 @@
         <f t="shared" si="3"/>
         <v>42696.835127314815</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U12">
+        <f t="shared" si="4"/>
+        <v>0.41044776119402987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>42696.835185185184</v>
       </c>
@@ -5090,8 +5102,12 @@
         <f t="shared" si="3"/>
         <v>42696.835185185184</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U13">
+        <f t="shared" si="4"/>
+        <v>0.39285714285714285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>42696.835243055553</v>
       </c>
@@ -5144,8 +5160,12 @@
         <f t="shared" si="3"/>
         <v>42696.835243055553</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U14">
+        <f t="shared" si="4"/>
+        <v>0.38723404255319149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>42696.835300925923</v>
       </c>
@@ -5198,8 +5218,12 @@
         <f t="shared" si="3"/>
         <v>42696.835300925923</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U15">
+        <f t="shared" si="4"/>
+        <v>0.38591549295774646</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>42696.835358796299</v>
       </c>
@@ -5252,8 +5276,12 @@
         <f t="shared" si="3"/>
         <v>42696.835358796299</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U16">
+        <f t="shared" si="4"/>
+        <v>0.38055555555555554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>42696.835416666669</v>
       </c>
@@ -5306,8 +5334,12 @@
         <f t="shared" si="3"/>
         <v>42696.835416666669</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U17">
+        <f t="shared" si="4"/>
+        <v>0.37671232876712329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>42696.835474537038</v>
       </c>
@@ -5360,8 +5392,12 @@
         <f t="shared" si="3"/>
         <v>42696.835474537038</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U18">
+        <f t="shared" si="4"/>
+        <v>0.38055555555555554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>42696.835532407407</v>
       </c>
@@ -5414,8 +5450,12 @@
         <f t="shared" si="3"/>
         <v>42696.835532407407</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U19">
+        <f t="shared" si="4"/>
+        <v>0.38194444444444442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>42696.835590277777</v>
       </c>
@@ -5468,8 +5508,12 @@
         <f t="shared" si="3"/>
         <v>42696.835590277777</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U20">
+        <f t="shared" si="4"/>
+        <v>0.3727891156462585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>42696.835648148146</v>
       </c>
@@ -5522,8 +5566,12 @@
         <f t="shared" si="3"/>
         <v>42696.835648148146</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U21">
+        <f t="shared" si="4"/>
+        <v>0.3716216216216216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>42696.835706018515</v>
       </c>
@@ -5576,8 +5624,12 @@
         <f t="shared" si="3"/>
         <v>42696.835706018515</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U22">
+        <f t="shared" si="4"/>
+        <v>0.36778523489932885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>42696.835763888892</v>
       </c>
@@ -5630,8 +5682,12 @@
         <f t="shared" si="3"/>
         <v>42696.835763888892</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U23">
+        <f t="shared" si="4"/>
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>42696.835821759261</v>
       </c>
@@ -5684,8 +5740,12 @@
         <f t="shared" si="3"/>
         <v>42696.835821759261</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U24">
+        <f t="shared" si="4"/>
+        <v>0.36423841059602646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>42696.835879629631</v>
       </c>
@@ -5738,8 +5798,12 @@
         <f t="shared" si="3"/>
         <v>42696.835879629631</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U25">
+        <f t="shared" si="4"/>
+        <v>0.35483870967741937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>42696.8359375</v>
       </c>
@@ -5792,8 +5856,12 @@
         <f t="shared" si="3"/>
         <v>42696.8359375</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U26">
+        <f t="shared" si="4"/>
+        <v>0.35384615384615387</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>42696.835995370369</v>
       </c>
@@ -5846,8 +5914,12 @@
         <f t="shared" si="3"/>
         <v>42696.835995370369</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U27">
+        <f t="shared" si="4"/>
+        <v>0.35384615384615387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>42696.836053240739</v>
       </c>
@@ -5900,8 +5972,12 @@
         <f t="shared" si="3"/>
         <v>42696.836053240739</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U28">
+        <f t="shared" si="4"/>
+        <v>0.34936708860759497</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>42696.836111111108</v>
       </c>
@@ -5954,8 +6030,12 @@
         <f t="shared" si="3"/>
         <v>42696.836111111108</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U29">
+        <f t="shared" si="4"/>
+        <v>0.35512820512820514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>42696.836168981485</v>
       </c>
@@ -6008,8 +6088,12 @@
         <f t="shared" si="3"/>
         <v>42696.836168981485</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U30">
+        <f t="shared" si="4"/>
+        <v>0.34197530864197528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>42696.836226851854</v>
       </c>
@@ -6062,8 +6146,12 @@
         <f t="shared" si="3"/>
         <v>42696.836226851854</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U31">
+        <f t="shared" si="4"/>
+        <v>0.34842767295597482</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>42696.836284722223</v>
       </c>
@@ -6116,8 +6204,12 @@
         <f t="shared" si="3"/>
         <v>42696.836284722223</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U32">
+        <f t="shared" si="4"/>
+        <v>0.34750000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>42696.836342592593</v>
       </c>
@@ -6170,8 +6262,12 @@
         <f t="shared" si="3"/>
         <v>42696.836342592593</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U33">
+        <f t="shared" si="4"/>
+        <v>0.33987730061349691</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>42696.836400462962</v>
       </c>
@@ -6224,8 +6320,12 @@
         <f t="shared" si="3"/>
         <v>42696.836400462962</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U34">
+        <f t="shared" si="4"/>
+        <v>0.33696969696969697</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>42696.836458333331</v>
       </c>
@@ -6278,8 +6378,12 @@
         <f t="shared" si="3"/>
         <v>42696.836458333331</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U35">
+        <f t="shared" si="4"/>
+        <v>0.33696969696969697</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>42696.836516203701</v>
       </c>
@@ -6332,8 +6436,12 @@
         <f t="shared" si="3"/>
         <v>42696.836516203701</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U36">
+        <f t="shared" si="4"/>
+        <v>0.33214285714285713</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>42696.836574074077</v>
       </c>
@@ -6386,8 +6494,12 @@
         <f t="shared" si="3"/>
         <v>42696.836574074077</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U37">
+        <f t="shared" si="4"/>
+        <v>0.33614457831325301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>42696.836631944447</v>
       </c>
@@ -6440,8 +6552,12 @@
         <f t="shared" si="3"/>
         <v>42696.836631944447</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U38">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>42696.836689814816</v>
       </c>
@@ -6494,8 +6610,12 @@
         <f t="shared" si="3"/>
         <v>42696.836689814816</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U39">
+        <f t="shared" si="4"/>
+        <v>0.33136094674556216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>42696.836747685185</v>
       </c>
@@ -6548,8 +6668,12 @@
         <f t="shared" si="3"/>
         <v>42696.836747685185</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U40">
+        <f t="shared" si="4"/>
+        <v>0.32558139534883723</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>42696.836805555555</v>
       </c>
@@ -6602,8 +6726,12 @@
         <f t="shared" si="3"/>
         <v>42696.836805555555</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U41">
+        <f t="shared" si="4"/>
+        <v>0.32941176470588235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>42696.836863425924</v>
       </c>
@@ -6656,8 +6784,12 @@
         <f t="shared" si="3"/>
         <v>42696.836863425924</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U42">
+        <f t="shared" si="4"/>
+        <v>0.32748538011695905</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42696.836921296293</v>
       </c>
@@ -6710,8 +6842,12 @@
         <f t="shared" si="3"/>
         <v>42696.836921296293</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U43">
+        <f t="shared" si="4"/>
+        <v>0.32485549132947977</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42696.83697916667</v>
       </c>
@@ -6764,8 +6900,12 @@
         <f t="shared" si="3"/>
         <v>42696.83697916667</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U44">
+        <f t="shared" si="4"/>
+        <v>0.32183908045977011</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42696.837037037039</v>
       </c>
@@ -6818,8 +6958,12 @@
         <f t="shared" si="3"/>
         <v>42696.837037037039</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U45">
+        <f t="shared" si="4"/>
+        <v>0.32485549132947977</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>42696.837094907409</v>
       </c>
@@ -6872,8 +7016,12 @@
         <f t="shared" si="3"/>
         <v>42696.837094907409</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U46">
+        <f t="shared" si="4"/>
+        <v>0.32298850574712645</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>42696.837152777778</v>
       </c>
@@ -6926,8 +7074,12 @@
         <f t="shared" si="3"/>
         <v>42696.837152777778</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U47">
+        <f t="shared" si="4"/>
+        <v>0.32485549132947977</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>42696.837210648147</v>
       </c>
@@ -6980,8 +7132,12 @@
         <f t="shared" si="3"/>
         <v>42696.837210648147</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U48">
+        <f t="shared" si="4"/>
+        <v>0.31931818181818183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>42696.837268518517</v>
       </c>
@@ -7034,8 +7190,12 @@
         <f t="shared" si="3"/>
         <v>42696.837268518517</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U49">
+        <f t="shared" si="4"/>
+        <v>0.31931818181818183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>42696.837326388886</v>
       </c>
@@ -7088,8 +7248,12 @@
         <f t="shared" si="3"/>
         <v>42696.837326388886</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U50">
+        <f t="shared" si="4"/>
+        <v>0.31685393258426964</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>42696.837384259263</v>
       </c>
@@ -7142,8 +7306,12 @@
         <f t="shared" si="3"/>
         <v>42696.837384259263</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U51">
+        <f t="shared" si="4"/>
+        <v>0.31864406779661014</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>42696.837442129632</v>
       </c>
@@ -7196,8 +7364,12 @@
         <f t="shared" si="3"/>
         <v>42696.837442129632</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U52">
+        <f t="shared" si="4"/>
+        <v>0.3146067415730337</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>42696.837500000001</v>
       </c>
@@ -7250,8 +7422,12 @@
         <f t="shared" si="3"/>
         <v>42696.837500000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U53">
+        <f t="shared" si="4"/>
+        <v>0.31333333333333335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>42696.837557870371</v>
       </c>
@@ -7304,8 +7480,12 @@
         <f t="shared" si="3"/>
         <v>42696.837557870371</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U54">
+        <f t="shared" si="4"/>
+        <v>0.31270718232044198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>42696.83761574074</v>
       </c>
@@ -7358,8 +7538,12 @@
         <f t="shared" si="3"/>
         <v>42696.83761574074</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U55">
+        <f t="shared" si="4"/>
+        <v>0.31270718232044198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>42696.837673611109</v>
       </c>
@@ -7412,8 +7596,12 @@
         <f t="shared" si="3"/>
         <v>42696.837673611109</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U56">
+        <f t="shared" si="4"/>
+        <v>0.31270718232044198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>42696.837731481479</v>
       </c>
@@ -7466,8 +7654,12 @@
         <f t="shared" si="3"/>
         <v>42696.837731481479</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U57">
+        <f t="shared" si="4"/>
+        <v>0.31160220994475135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>42696.837789351855</v>
       </c>
@@ -7520,8 +7712,12 @@
         <f t="shared" si="3"/>
         <v>42696.837789351855</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U58">
+        <f t="shared" si="4"/>
+        <v>0.31098901098901099</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>42696.837847222225</v>
       </c>
@@ -7574,8 +7770,12 @@
         <f t="shared" si="3"/>
         <v>42696.837847222225</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U59">
+        <f t="shared" si="4"/>
+        <v>0.3098901098901099</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>42696.837905092594</v>
       </c>
@@ -7628,8 +7828,12 @@
         <f t="shared" si="3"/>
         <v>42696.837905092594</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U60">
+        <f t="shared" si="4"/>
+        <v>0.31160220994475135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>42696.837962962964</v>
       </c>
@@ -7682,8 +7886,12 @@
         <f t="shared" si="3"/>
         <v>42696.837962962964</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U61">
+        <f t="shared" si="4"/>
+        <v>0.30819672131147541</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>42696.838020833333</v>
       </c>
@@ -7736,8 +7944,12 @@
         <f t="shared" si="3"/>
         <v>42696.838020833333</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U62">
+        <f t="shared" si="4"/>
+        <v>0.30430107526881722</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>42696.838078703702</v>
       </c>
@@ -7790,8 +8002,12 @@
         <f t="shared" si="3"/>
         <v>42696.838078703702</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U63">
+        <f t="shared" si="4"/>
+        <v>0.30652173913043479</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>42696.838136574072</v>
       </c>
@@ -7844,8 +8060,12 @@
         <f t="shared" si="3"/>
         <v>42696.838136574072</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U64">
+        <f t="shared" si="4"/>
+        <v>0.30760869565217391</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>42696.838194444441</v>
       </c>
@@ -7898,8 +8118,12 @@
         <f t="shared" si="3"/>
         <v>42696.838194444441</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U65">
+        <f t="shared" si="4"/>
+        <v>0.30594594594594593</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>42696.838252314818</v>
       </c>
@@ -7952,8 +8176,12 @@
         <f t="shared" si="3"/>
         <v>42696.838252314818</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U66">
+        <f t="shared" si="4"/>
+        <v>0.30267379679144385</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>42696.838310185187</v>
       </c>
@@ -8006,8 +8234,12 @@
         <f t="shared" si="3"/>
         <v>42696.838310185187</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U67">
+        <f t="shared" si="4"/>
+        <v>0.30430107526881722</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>42696.838368055556</v>
       </c>
@@ -8060,8 +8292,12 @@
         <f t="shared" si="3"/>
         <v>42696.838368055556</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U68">
+        <f t="shared" si="4"/>
+        <v>0.30374331550802136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>42696.838425925926</v>
       </c>
@@ -8114,8 +8350,12 @@
         <f t="shared" si="3"/>
         <v>42696.838425925926</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U69">
+        <f t="shared" si="4"/>
+        <v>0.30267379679144385</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>42696.838483796295</v>
       </c>
@@ -8168,8 +8408,12 @@
         <f t="shared" si="3"/>
         <v>42696.838483796295</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U70">
+        <f t="shared" si="4"/>
+        <v>0.29789473684210527</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>42696.838541666664</v>
       </c>
@@ -8222,8 +8466,12 @@
         <f t="shared" si="3"/>
         <v>42696.838541666664</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U71">
+        <f t="shared" si="4"/>
+        <v>0.30537634408602149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>42696.838599537034</v>
       </c>
@@ -8276,8 +8524,12 @@
         <f t="shared" si="3"/>
         <v>42696.838599537034</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U72">
+        <f t="shared" si="4"/>
+        <v>0.30052910052910053</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>42696.83865740741</v>
       </c>
@@ -8330,8 +8582,12 @@
         <f t="shared" si="3"/>
         <v>42696.83865740741</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U73">
+        <f t="shared" si="4"/>
+        <v>0.2963350785340314</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>42696.83871527778</v>
       </c>
@@ -8384,8 +8640,12 @@
         <f t="shared" si="3"/>
         <v>42696.83871527778</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U74">
+        <f t="shared" si="4"/>
+        <v>0.29894736842105263</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>42696.838773148149</v>
       </c>
@@ -8423,23 +8683,27 @@
         <v>28.3</v>
       </c>
       <c r="Q75">
-        <f t="shared" ref="Q75:Q138" si="4">AVERAGE(H75,M75)</f>
+        <f t="shared" ref="Q75:Q138" si="5">AVERAGE(H75,M75)</f>
         <v>100</v>
       </c>
       <c r="R75">
-        <f t="shared" ref="R75:R138" si="5" xml:space="preserve"> AVERAGE(B75:C75)</f>
+        <f t="shared" ref="R75:R138" si="6" xml:space="preserve"> AVERAGE(B75:C75)</f>
         <v>94.5</v>
       </c>
       <c r="S75">
-        <f t="shared" ref="S75:S138" si="6">O75</f>
+        <f t="shared" ref="S75:S138" si="7">O75</f>
         <v>28.3</v>
       </c>
       <c r="T75" s="2">
-        <f t="shared" ref="T75:T138" si="7">A75</f>
+        <f t="shared" ref="T75:T138" si="8">A75</f>
         <v>42696.838773148149</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U75">
+        <f t="shared" ref="U75:U138" si="9">S75/R75</f>
+        <v>0.2994708994708995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>42696.838831018518</v>
       </c>
@@ -8477,23 +8741,27 @@
         <v>28.4</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="S76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.4</v>
       </c>
       <c r="T76" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.838831018518</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U76">
+        <f t="shared" si="9"/>
+        <v>0.29583333333333334</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>42696.838888888888</v>
       </c>
@@ -8531,23 +8799,27 @@
         <v>28.4</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>95.5</v>
       </c>
       <c r="S77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.4</v>
       </c>
       <c r="T77" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.838888888888</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U77">
+        <f t="shared" si="9"/>
+        <v>0.29738219895287954</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>42696.838946759257</v>
       </c>
@@ -8585,23 +8857,27 @@
         <v>28.4</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>95.5</v>
       </c>
       <c r="S78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.4</v>
       </c>
       <c r="T78" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.838946759257</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U78">
+        <f t="shared" si="9"/>
+        <v>0.29738219895287954</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>42696.839004629626</v>
       </c>
@@ -8639,23 +8915,27 @@
         <v>28.5</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>95</v>
       </c>
       <c r="S79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.5</v>
       </c>
       <c r="T79" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.839004629626</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U79">
+        <f t="shared" si="9"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>42696.839062500003</v>
       </c>
@@ -8693,23 +8973,27 @@
         <v>28.5</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
       <c r="S80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.5</v>
       </c>
       <c r="T80" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.839062500003</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U80">
+        <f t="shared" si="9"/>
+        <v>0.29381443298969073</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>42696.839120370372</v>
       </c>
@@ -8747,23 +9031,27 @@
         <v>28.5</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="S81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.5</v>
       </c>
       <c r="T81" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.839120370372</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U81">
+        <f t="shared" si="9"/>
+        <v>0.296875</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>42696.839178240742</v>
       </c>
@@ -8801,23 +9089,27 @@
         <v>28.5</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96.5</v>
       </c>
       <c r="S82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.5</v>
       </c>
       <c r="T82" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.839178240742</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U82">
+        <f t="shared" si="9"/>
+        <v>0.29533678756476683</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>42696.839236111111</v>
       </c>
@@ -8855,23 +9147,27 @@
         <v>28.5</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96.5</v>
       </c>
       <c r="S83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.5</v>
       </c>
       <c r="T83" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.839236111111</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U83">
+        <f t="shared" si="9"/>
+        <v>0.29533678756476683</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>42696.83929398148</v>
       </c>
@@ -8909,23 +9205,27 @@
         <v>28.5</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96.5</v>
       </c>
       <c r="S84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.5</v>
       </c>
       <c r="T84" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.83929398148</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U84">
+        <f t="shared" si="9"/>
+        <v>0.29533678756476683</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>42696.83935185185</v>
       </c>
@@ -8963,23 +9263,27 @@
         <v>28.5</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96.5</v>
       </c>
       <c r="S85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.5</v>
       </c>
       <c r="T85" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.83935185185</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U85">
+        <f t="shared" si="9"/>
+        <v>0.29533678756476683</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>42696.839409722219</v>
       </c>
@@ -9017,23 +9321,27 @@
         <v>28.6</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96.5</v>
       </c>
       <c r="S86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.6</v>
       </c>
       <c r="T86" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.839409722219</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U86">
+        <f t="shared" si="9"/>
+        <v>0.29637305699481864</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>42696.839467592596</v>
       </c>
@@ -9071,23 +9379,27 @@
         <v>28.6</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96.5</v>
       </c>
       <c r="S87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.6</v>
       </c>
       <c r="T87" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.839467592596</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U87">
+        <f t="shared" si="9"/>
+        <v>0.29637305699481864</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>42696.839525462965</v>
       </c>
@@ -9125,23 +9437,27 @@
         <v>28.6</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="S88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.6</v>
       </c>
       <c r="T88" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.839525462965</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U88">
+        <f t="shared" si="9"/>
+        <v>0.29183673469387755</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>42696.839583333334</v>
       </c>
@@ -9179,23 +9495,27 @@
         <v>28.6</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="S89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.6</v>
       </c>
       <c r="T89" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.839583333334</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U89">
+        <f t="shared" si="9"/>
+        <v>0.29183673469387755</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>42696.839641203704</v>
       </c>
@@ -9233,23 +9553,27 @@
         <v>28.6</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
       <c r="S90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.6</v>
       </c>
       <c r="T90" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.839641203704</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U90">
+        <f t="shared" si="9"/>
+        <v>0.29484536082474228</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>42696.839699074073</v>
       </c>
@@ -9287,23 +9611,27 @@
         <v>28.6</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="S91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.6</v>
       </c>
       <c r="T91" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.839699074073</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U91">
+        <f t="shared" si="9"/>
+        <v>0.28888888888888892</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>42696.839756944442</v>
       </c>
@@ -9341,23 +9669,27 @@
         <v>28.6</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="S92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.6</v>
       </c>
       <c r="T92" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.839756944442</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U92">
+        <f t="shared" si="9"/>
+        <v>0.29183673469387755</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>42696.839814814812</v>
       </c>
@@ -9395,23 +9727,27 @@
         <v>28.7</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="S93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.7</v>
       </c>
       <c r="T93" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.839814814812</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U93">
+        <f t="shared" si="9"/>
+        <v>0.29285714285714287</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>42696.839872685188</v>
       </c>
@@ -9449,23 +9785,27 @@
         <v>28.6</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="S94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.6</v>
       </c>
       <c r="T94" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.839872685188</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U94">
+        <f t="shared" si="9"/>
+        <v>0.29183673469387755</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>42696.839930555558</v>
       </c>
@@ -9503,23 +9843,27 @@
         <v>28.7</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
       <c r="S95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.7</v>
       </c>
       <c r="T95" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.839930555558</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U95">
+        <f t="shared" si="9"/>
+        <v>0.29435897435897435</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>42696.839988425927</v>
       </c>
@@ -9557,23 +9901,27 @@
         <v>28.7</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="S96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.7</v>
       </c>
       <c r="T96" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.839988425927</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U96">
+        <f t="shared" si="9"/>
+        <v>0.29285714285714287</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>42696.840046296296</v>
       </c>
@@ -9611,23 +9959,27 @@
         <v>28.9</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="S97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.9</v>
       </c>
       <c r="T97" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.840046296296</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U97">
+        <f t="shared" si="9"/>
+        <v>0.29191919191919191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>42696.840104166666</v>
       </c>
@@ -9665,23 +10017,27 @@
         <v>28.6</v>
       </c>
       <c r="Q98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98.5</v>
       </c>
       <c r="S98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.6</v>
       </c>
       <c r="T98" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.840104166666</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U98">
+        <f t="shared" si="9"/>
+        <v>0.29035532994923857</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>42696.840162037035</v>
       </c>
@@ -9719,23 +10075,27 @@
         <v>28.5</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98.5</v>
       </c>
       <c r="S99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.5</v>
       </c>
       <c r="T99" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.840162037035</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U99">
+        <f t="shared" si="9"/>
+        <v>0.28934010152284262</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>42696.840219907404</v>
       </c>
@@ -9773,23 +10133,27 @@
         <v>28.6</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98.5</v>
       </c>
       <c r="S100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.6</v>
       </c>
       <c r="T100" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.840219907404</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U100">
+        <f t="shared" si="9"/>
+        <v>0.29035532994923857</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>42696.840277777781</v>
       </c>
@@ -9827,23 +10191,27 @@
         <v>28.7</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.5</v>
       </c>
       <c r="S101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.7</v>
       </c>
       <c r="T101" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.840277777781</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U101">
+        <f t="shared" si="9"/>
+        <v>0.2884422110552764</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>42696.84033564815</v>
       </c>
@@ -9881,23 +10249,27 @@
         <v>28.7</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="S102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.7</v>
       </c>
       <c r="T102" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.84033564815</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U102">
+        <f t="shared" si="9"/>
+        <v>0.28989898989898988</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>42696.84039351852</v>
       </c>
@@ -9935,23 +10307,27 @@
         <v>28.7</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="S103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.7</v>
       </c>
       <c r="T103" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.84039351852</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U103">
+        <f t="shared" si="9"/>
+        <v>0.28989898989898988</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>42696.840451388889</v>
       </c>
@@ -9989,23 +10365,27 @@
         <v>28.7</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.5</v>
       </c>
       <c r="S104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.7</v>
       </c>
       <c r="T104" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.840451388889</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U104">
+        <f t="shared" si="9"/>
+        <v>0.2884422110552764</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>42696.840509259258</v>
       </c>
@@ -10043,23 +10423,27 @@
         <v>28.7</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="S105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.7</v>
       </c>
       <c r="T105" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.840509259258</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U105">
+        <f t="shared" si="9"/>
+        <v>0.28989898989898988</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>42696.840567129628</v>
       </c>
@@ -10097,23 +10481,27 @@
         <v>28.7</v>
       </c>
       <c r="Q106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100.5</v>
       </c>
       <c r="S106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.7</v>
       </c>
       <c r="T106" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.840567129628</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U106">
+        <f t="shared" si="9"/>
+        <v>0.28557213930348258</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>42696.840624999997</v>
       </c>
@@ -10151,23 +10539,27 @@
         <v>28.7</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.7</v>
       </c>
       <c r="T107" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.840624999997</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U107">
+        <f t="shared" si="9"/>
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>42696.840682870374</v>
       </c>
@@ -10205,23 +10597,27 @@
         <v>28.7</v>
       </c>
       <c r="Q108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.7</v>
       </c>
       <c r="T108" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.840682870374</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U108">
+        <f t="shared" si="9"/>
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>42696.840740740743</v>
       </c>
@@ -10259,23 +10655,27 @@
         <v>28.8</v>
       </c>
       <c r="Q109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.8</v>
       </c>
       <c r="T109" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.840740740743</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U109">
+        <f t="shared" si="9"/>
+        <v>0.28800000000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>42696.840798611112</v>
       </c>
@@ -10313,23 +10713,27 @@
         <v>28.7</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.5</v>
       </c>
       <c r="S110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.7</v>
       </c>
       <c r="T110" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.840798611112</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U110">
+        <f t="shared" si="9"/>
+        <v>0.2884422110552764</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>42696.840856481482</v>
       </c>
@@ -10367,23 +10771,27 @@
         <v>28.8</v>
       </c>
       <c r="Q111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>101</v>
       </c>
       <c r="S111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.8</v>
       </c>
       <c r="T111" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.840856481482</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U111">
+        <f t="shared" si="9"/>
+        <v>0.28514851485148518</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>42696.840914351851</v>
       </c>
@@ -10421,23 +10829,27 @@
         <v>28.8</v>
       </c>
       <c r="Q112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>101</v>
       </c>
       <c r="S112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.8</v>
       </c>
       <c r="T112" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.840914351851</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U112">
+        <f t="shared" si="9"/>
+        <v>0.28514851485148518</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>42696.84097222222</v>
       </c>
@@ -10475,23 +10887,27 @@
         <v>28.8</v>
       </c>
       <c r="Q113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.8</v>
       </c>
       <c r="T113" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.84097222222</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U113">
+        <f t="shared" si="9"/>
+        <v>0.28800000000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>42696.84103009259</v>
       </c>
@@ -10529,23 +10945,27 @@
         <v>28.8</v>
       </c>
       <c r="Q114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100.5</v>
       </c>
       <c r="S114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.8</v>
       </c>
       <c r="T114" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.84103009259</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U114">
+        <f t="shared" si="9"/>
+        <v>0.28656716417910449</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>42696.841087962966</v>
       </c>
@@ -10583,23 +11003,27 @@
         <v>28.8</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.5</v>
       </c>
       <c r="S115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.8</v>
       </c>
       <c r="T115" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.841087962966</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U115">
+        <f t="shared" si="9"/>
+        <v>0.28944723618090451</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>42696.841145833336</v>
       </c>
@@ -10637,23 +11061,27 @@
         <v>28.8</v>
       </c>
       <c r="Q116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100.5</v>
       </c>
       <c r="S116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.8</v>
       </c>
       <c r="T116" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.841145833336</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U116">
+        <f t="shared" si="9"/>
+        <v>0.28656716417910449</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>42696.841203703705</v>
       </c>
@@ -10691,23 +11119,27 @@
         <v>28.9</v>
       </c>
       <c r="Q117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100.5</v>
       </c>
       <c r="S117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.9</v>
       </c>
       <c r="T117" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.841203703705</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U117">
+        <f t="shared" si="9"/>
+        <v>0.28756218905472636</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>42696.841261574074</v>
       </c>
@@ -10745,23 +11177,27 @@
         <v>28.9</v>
       </c>
       <c r="Q118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>101.5</v>
       </c>
       <c r="S118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.9</v>
       </c>
       <c r="T118" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.841261574074</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U118">
+        <f t="shared" si="9"/>
+        <v>0.28472906403940884</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>42696.841319444444</v>
       </c>
@@ -10799,23 +11235,27 @@
         <v>28.8</v>
       </c>
       <c r="Q119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102</v>
       </c>
       <c r="S119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.8</v>
       </c>
       <c r="T119" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.841319444444</v>
       </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U119">
+        <f t="shared" si="9"/>
+        <v>0.28235294117647058</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>42696.841377314813</v>
       </c>
@@ -10853,23 +11293,27 @@
         <v>28.8</v>
       </c>
       <c r="Q120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>101.5</v>
       </c>
       <c r="S120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.8</v>
       </c>
       <c r="T120" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.841377314813</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U120">
+        <f t="shared" si="9"/>
+        <v>0.28374384236453204</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>42696.841435185182</v>
       </c>
@@ -10907,23 +11351,27 @@
         <v>28.8</v>
       </c>
       <c r="Q121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.8</v>
       </c>
       <c r="T121" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.841435185182</v>
       </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U121">
+        <f t="shared" si="9"/>
+        <v>0.28800000000000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>42696.841493055559</v>
       </c>
@@ -10961,23 +11409,27 @@
         <v>28.9</v>
       </c>
       <c r="Q122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>101</v>
       </c>
       <c r="S122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.9</v>
       </c>
       <c r="T122" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.841493055559</v>
       </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U122">
+        <f t="shared" si="9"/>
+        <v>0.28613861386138612</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>42696.841550925928</v>
       </c>
@@ -11015,23 +11467,27 @@
         <v>28.8</v>
       </c>
       <c r="Q123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102</v>
       </c>
       <c r="S123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.8</v>
       </c>
       <c r="T123" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.841550925928</v>
       </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U123">
+        <f t="shared" si="9"/>
+        <v>0.28235294117647058</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>42696.841608796298</v>
       </c>
@@ -11069,23 +11525,27 @@
         <v>28.9</v>
       </c>
       <c r="Q124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102.5</v>
       </c>
       <c r="S124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.9</v>
       </c>
       <c r="T124" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.841608796298</v>
       </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U124">
+        <f t="shared" si="9"/>
+        <v>0.28195121951219509</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>42696.841666666667</v>
       </c>
@@ -11123,23 +11583,27 @@
         <v>28.9</v>
       </c>
       <c r="Q125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102</v>
       </c>
       <c r="S125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.9</v>
       </c>
       <c r="T125" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.841666666667</v>
       </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U125">
+        <f t="shared" si="9"/>
+        <v>0.28333333333333333</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>42696.841724537036</v>
       </c>
@@ -11177,23 +11641,27 @@
         <v>28.8</v>
       </c>
       <c r="Q126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>101.5</v>
       </c>
       <c r="S126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.8</v>
       </c>
       <c r="T126" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.841724537036</v>
       </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U126">
+        <f t="shared" si="9"/>
+        <v>0.28374384236453204</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>42696.841782407406</v>
       </c>
@@ -11231,23 +11699,27 @@
         <v>28.9</v>
       </c>
       <c r="Q127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>101.5</v>
       </c>
       <c r="S127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.9</v>
       </c>
       <c r="T127" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.841782407406</v>
       </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U127">
+        <f t="shared" si="9"/>
+        <v>0.28472906403940884</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>42696.841840277775</v>
       </c>
@@ -11285,23 +11757,27 @@
         <v>28.9</v>
       </c>
       <c r="Q128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>101.5</v>
       </c>
       <c r="S128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.9</v>
       </c>
       <c r="T128" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.841840277775</v>
       </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U128">
+        <f t="shared" si="9"/>
+        <v>0.28472906403940884</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>42696.841898148145</v>
       </c>
@@ -11339,23 +11815,27 @@
         <v>29</v>
       </c>
       <c r="Q129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>101</v>
       </c>
       <c r="S129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="T129" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.841898148145</v>
       </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U129">
+        <f t="shared" si="9"/>
+        <v>0.28712871287128711</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>42696.841956018521</v>
       </c>
@@ -11393,23 +11873,27 @@
         <v>28.8</v>
       </c>
       <c r="Q130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102.5</v>
       </c>
       <c r="S130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.8</v>
       </c>
       <c r="T130" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.841956018521</v>
       </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U130">
+        <f t="shared" si="9"/>
+        <v>0.28097560975609759</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>42696.842013888891</v>
       </c>
@@ -11447,23 +11931,27 @@
         <v>28.9</v>
       </c>
       <c r="Q131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>101.5</v>
       </c>
       <c r="S131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.9</v>
       </c>
       <c r="T131" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.842013888891</v>
       </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U131">
+        <f t="shared" si="9"/>
+        <v>0.28472906403940884</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>42696.84207175926</v>
       </c>
@@ -11501,23 +11989,27 @@
         <v>28.9</v>
       </c>
       <c r="Q132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102.5</v>
       </c>
       <c r="S132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.9</v>
       </c>
       <c r="T132" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.84207175926</v>
       </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U132">
+        <f t="shared" si="9"/>
+        <v>0.28195121951219509</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>42696.842129629629</v>
       </c>
@@ -11555,23 +12047,27 @@
         <v>28.9</v>
       </c>
       <c r="Q133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>101</v>
       </c>
       <c r="S133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.9</v>
       </c>
       <c r="T133" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.842129629629</v>
       </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U133">
+        <f t="shared" si="9"/>
+        <v>0.28613861386138612</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>42696.842187499999</v>
       </c>
@@ -11609,23 +12105,27 @@
         <v>28.9</v>
       </c>
       <c r="Q134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>101.5</v>
       </c>
       <c r="S134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.9</v>
       </c>
       <c r="T134" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.842187499999</v>
       </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U134">
+        <f t="shared" si="9"/>
+        <v>0.28472906403940884</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>42696.842245370368</v>
       </c>
@@ -11663,23 +12163,27 @@
         <v>28.9</v>
       </c>
       <c r="Q135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>101.5</v>
       </c>
       <c r="S135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.9</v>
       </c>
       <c r="T135" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.842245370368</v>
       </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U135">
+        <f t="shared" si="9"/>
+        <v>0.28472906403940884</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>42696.842303240737</v>
       </c>
@@ -11717,23 +12221,27 @@
         <v>28.8</v>
       </c>
       <c r="Q136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102</v>
       </c>
       <c r="S136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.8</v>
       </c>
       <c r="T136" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.842303240737</v>
       </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U136">
+        <f t="shared" si="9"/>
+        <v>0.28235294117647058</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>42696.842361111114</v>
       </c>
@@ -11771,23 +12279,27 @@
         <v>28.9</v>
       </c>
       <c r="Q137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>101</v>
       </c>
       <c r="S137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.9</v>
       </c>
       <c r="T137" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.842361111114</v>
       </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U137">
+        <f t="shared" si="9"/>
+        <v>0.28613861386138612</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>42696.842418981483</v>
       </c>
@@ -11825,23 +12337,27 @@
         <v>29</v>
       </c>
       <c r="Q138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>101</v>
       </c>
       <c r="S138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="T138" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.842418981483</v>
       </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U138">
+        <f t="shared" si="9"/>
+        <v>0.28712871287128711</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>42696.842476851853</v>
       </c>
@@ -11879,23 +12395,27 @@
         <v>28.9</v>
       </c>
       <c r="Q139">
-        <f t="shared" ref="Q139:Q158" si="8">AVERAGE(H139,M139)</f>
+        <f t="shared" ref="Q139:Q158" si="10">AVERAGE(H139,M139)</f>
         <v>100</v>
       </c>
       <c r="R139">
-        <f t="shared" ref="R139:R158" si="9" xml:space="preserve"> AVERAGE(B139:C139)</f>
+        <f t="shared" ref="R139:R158" si="11" xml:space="preserve"> AVERAGE(B139:C139)</f>
         <v>102.5</v>
       </c>
       <c r="S139">
-        <f t="shared" ref="S139:S158" si="10">O139</f>
+        <f t="shared" ref="S139:S158" si="12">O139</f>
         <v>28.9</v>
       </c>
       <c r="T139" s="2">
-        <f t="shared" ref="T139:T158" si="11">A139</f>
+        <f t="shared" ref="T139:T158" si="13">A139</f>
         <v>42696.842476851853</v>
       </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U139">
+        <f t="shared" ref="U139:U158" si="14">S139/R139</f>
+        <v>0.28195121951219509</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>42696.842534722222</v>
       </c>
@@ -11933,23 +12453,27 @@
         <v>28.8</v>
       </c>
       <c r="Q140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="R140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>103</v>
       </c>
       <c r="S140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28.8</v>
       </c>
       <c r="T140" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42696.842534722222</v>
       </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U140">
+        <f t="shared" si="14"/>
+        <v>0.2796116504854369</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>42696.842592592591</v>
       </c>
@@ -11987,23 +12511,27 @@
         <v>28.9</v>
       </c>
       <c r="Q141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="R141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>102</v>
       </c>
       <c r="S141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28.9</v>
       </c>
       <c r="T141" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42696.842592592591</v>
       </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U141">
+        <f t="shared" si="14"/>
+        <v>0.28333333333333333</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>42696.842650462961</v>
       </c>
@@ -12041,23 +12569,27 @@
         <v>28.5</v>
       </c>
       <c r="Q142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="R142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>102.5</v>
       </c>
       <c r="S142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28.5</v>
       </c>
       <c r="T142" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42696.842650462961</v>
       </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U142">
+        <f t="shared" si="14"/>
+        <v>0.2780487804878049</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>42696.84270833333</v>
       </c>
@@ -12095,23 +12627,27 @@
         <v>28.7</v>
       </c>
       <c r="Q143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="R143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>102.5</v>
       </c>
       <c r="S143">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28.7</v>
       </c>
       <c r="T143" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42696.84270833333</v>
       </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U143">
+        <f t="shared" si="14"/>
+        <v>0.27999999999999997</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>42696.842766203707</v>
       </c>
@@ -12149,23 +12685,27 @@
         <v>28.8</v>
       </c>
       <c r="Q144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="R144">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>102.5</v>
       </c>
       <c r="S144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28.8</v>
       </c>
       <c r="T144" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42696.842766203707</v>
       </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U144">
+        <f t="shared" si="14"/>
+        <v>0.28097560975609759</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>42696.842824074076</v>
       </c>
@@ -12203,23 +12743,27 @@
         <v>28.6</v>
       </c>
       <c r="Q145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="R145">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>103</v>
       </c>
       <c r="S145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28.6</v>
       </c>
       <c r="T145" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42696.842824074076</v>
       </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U145">
+        <f t="shared" si="14"/>
+        <v>0.27766990291262139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>42696.842881944445</v>
       </c>
@@ -12257,23 +12801,27 @@
         <v>28.5</v>
       </c>
       <c r="Q146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="R146">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>102.5</v>
       </c>
       <c r="S146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28.5</v>
       </c>
       <c r="T146" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42696.842881944445</v>
       </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U146">
+        <f t="shared" si="14"/>
+        <v>0.2780487804878049</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>42696.842939814815</v>
       </c>
@@ -12311,23 +12859,27 @@
         <v>28.9</v>
       </c>
       <c r="Q147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="R147">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>102</v>
       </c>
       <c r="S147">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28.9</v>
       </c>
       <c r="T147" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42696.842939814815</v>
       </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U147">
+        <f t="shared" si="14"/>
+        <v>0.28333333333333333</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>42696.842997685184</v>
       </c>
@@ -12365,23 +12917,27 @@
         <v>29</v>
       </c>
       <c r="Q148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="R148">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>101.5</v>
       </c>
       <c r="S148">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>29</v>
       </c>
       <c r="T148" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42696.842997685184</v>
       </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U148">
+        <f t="shared" si="14"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>42696.843055555553</v>
       </c>
@@ -12419,23 +12975,27 @@
         <v>28.7</v>
       </c>
       <c r="Q149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="R149">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>101.5</v>
       </c>
       <c r="S149">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28.7</v>
       </c>
       <c r="T149" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42696.843055555553</v>
       </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U149">
+        <f t="shared" si="14"/>
+        <v>0.28275862068965518</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>42696.843113425923</v>
       </c>
@@ -12473,23 +13033,27 @@
         <v>26.4</v>
       </c>
       <c r="Q150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="R150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="S150">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>26.4</v>
       </c>
       <c r="T150" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42696.843113425923</v>
       </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U150">
+        <f t="shared" si="14"/>
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>42696.843171296299</v>
       </c>
@@ -12527,23 +13091,27 @@
         <v>19</v>
       </c>
       <c r="Q151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="R151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>93.5</v>
       </c>
       <c r="S151">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="T151" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42696.843171296299</v>
       </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U151">
+        <f t="shared" si="14"/>
+        <v>0.20320855614973263</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>42696.843229166669</v>
       </c>
@@ -12581,23 +13149,27 @@
         <v>20</v>
       </c>
       <c r="Q152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>34.5</v>
       </c>
       <c r="R152">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>95.5</v>
       </c>
       <c r="S152">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="T152" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42696.843229166669</v>
       </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U152">
+        <f t="shared" si="14"/>
+        <v>0.20942408376963351</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>42696.843287037038</v>
       </c>
@@ -12635,23 +13207,27 @@
         <v>11.3</v>
       </c>
       <c r="Q153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12.5</v>
       </c>
       <c r="R153">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>87.5</v>
       </c>
       <c r="S153">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>11.3</v>
       </c>
       <c r="T153" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42696.843287037038</v>
       </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U153">
+        <f t="shared" si="14"/>
+        <v>0.12914285714285714</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>42696.843344907407</v>
       </c>
@@ -12689,23 +13265,27 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="Q154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="R154">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>85</v>
       </c>
       <c r="S154">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="T154" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42696.843344907407</v>
       </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U154">
+        <f t="shared" si="14"/>
+        <v>0.10823529411764705</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>42696.843402777777</v>
       </c>
@@ -12743,23 +13323,31 @@
         <v>9.4</v>
       </c>
       <c r="Q155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="R155">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>85.5</v>
       </c>
       <c r="S155">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.4</v>
       </c>
       <c r="T155" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42696.843402777777</v>
       </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U155">
+        <f t="shared" si="14"/>
+        <v>0.10994152046783626</v>
+      </c>
+      <c r="V155">
+        <f>AVERAGEIF(R10:R158,"&gt;=100", U10:U158)</f>
+        <v>0.28357713360621944</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>42696.843460648146</v>
       </c>
@@ -12797,23 +13385,27 @@
         <v>9.6</v>
       </c>
       <c r="Q156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="R156">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>82.5</v>
       </c>
       <c r="S156">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.6</v>
       </c>
       <c r="T156" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42696.843460648146</v>
       </c>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U156">
+        <f t="shared" si="14"/>
+        <v>0.11636363636363636</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>42696.843518518515</v>
       </c>
@@ -12851,23 +13443,27 @@
         <v>8.9</v>
       </c>
       <c r="Q157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R157">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>81.5</v>
       </c>
       <c r="S157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.9</v>
       </c>
       <c r="T157" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42696.843518518515</v>
       </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U157">
+        <f t="shared" si="14"/>
+        <v>0.10920245398773007</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>42696.843576388892</v>
       </c>
@@ -12905,20 +13501,24 @@
         <v>9.5</v>
       </c>
       <c r="Q158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
       <c r="R158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>80.5</v>
       </c>
       <c r="S158">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="T158" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42696.843576388892</v>
+      </c>
+      <c r="U158">
+        <f t="shared" si="14"/>
+        <v>0.11801242236024845</v>
       </c>
     </row>
   </sheetData>
